--- a/config_9.28/permission_server_config.xlsx
+++ b/config_9.28/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="2158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="2160">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9593,10 +9593,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_new_player_task</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>新手任务（新玩家）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -9810,6 +9806,44 @@
         <scheme val="minor"/>
       </rPr>
       <t>021年10月11日23:59:59结束</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_new_player_task</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_p_new_player_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_p_new_player_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -10696,8 +10730,8 @@
   <dimension ref="A1:Q521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D376" sqref="D376"/>
+      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D520" sqref="D520:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14799,7 +14833,7 @@
         <v>639</v>
       </c>
       <c r="C375" s="1">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -15701,7 +15735,7 @@
     </row>
     <row r="498" spans="1:17" customFormat="1">
       <c r="A498" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>804</v>
@@ -15847,46 +15881,46 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B518" s="118" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C518" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B519" s="118" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C519" s="1">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B520" s="118" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C520" s="1">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="118" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B521" s="118" t="s">
         <v>2143</v>
       </c>
-      <c r="B521" s="118" t="s">
-        <v>2144</v>
-      </c>
       <c r="C521" s="1">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -15898,13 +15932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O419"/>
+  <dimension ref="A1:O421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G419" sqref="G419"/>
+      <selection pane="bottomRight" activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29877,11 +29911,11 @@
       <c r="B415" s="7">
         <v>1</v>
       </c>
-      <c r="C415" s="7" t="s">
+      <c r="C415" s="119" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D415" s="7" t="s">
         <v>2119</v>
-      </c>
-      <c r="D415" s="7" t="s">
-        <v>2120</v>
       </c>
       <c r="G415" s="7">
         <v>510</v>
@@ -29910,13 +29944,13 @@
         <v>1</v>
       </c>
       <c r="C416" s="119" t="s">
-        <v>2146</v>
-      </c>
-      <c r="D416" s="119" t="s">
-        <v>2147</v>
+        <v>2158</v>
+      </c>
+      <c r="D416" s="7" t="s">
+        <v>2119</v>
       </c>
       <c r="G416" s="7">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H416" s="7" t="b">
         <v>1</v>
@@ -29941,14 +29975,14 @@
       <c r="B417" s="7">
         <v>1</v>
       </c>
-      <c r="C417" s="122" t="s">
-        <v>2154</v>
-      </c>
-      <c r="D417" s="119" t="s">
-        <v>2151</v>
+      <c r="C417" s="119" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D417" s="7" t="s">
+        <v>2119</v>
       </c>
       <c r="G417" s="7">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="H417" s="7" t="b">
         <v>1</v>
@@ -29960,10 +29994,10 @@
         <v>2096</v>
       </c>
       <c r="K417" s="7">
-        <v>1632787200</v>
+        <v>0</v>
       </c>
       <c r="L417" s="119" t="s">
-        <v>2157</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -29973,14 +30007,14 @@
       <c r="B418" s="7">
         <v>1</v>
       </c>
-      <c r="C418" s="122" t="s">
-        <v>2155</v>
+      <c r="C418" s="119" t="s">
+        <v>2145</v>
       </c>
       <c r="D418" s="119" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="G418" s="7">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H418" s="7" t="b">
         <v>1</v>
@@ -29992,10 +30026,10 @@
         <v>2096</v>
       </c>
       <c r="K418" s="7">
-        <v>1632787200</v>
+        <v>0</v>
       </c>
       <c r="L418" s="119" t="s">
-        <v>2157</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -30006,13 +30040,13 @@
         <v>1</v>
       </c>
       <c r="C419" s="122" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D419" s="119" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="G419" s="7">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H419" s="7" t="b">
         <v>1</v>
@@ -30027,7 +30061,71 @@
         <v>1632787200</v>
       </c>
       <c r="L419" s="119" t="s">
-        <v>2157</v>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="A420" s="7">
+        <v>419</v>
+      </c>
+      <c r="B420" s="7">
+        <v>1</v>
+      </c>
+      <c r="C420" s="122" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D420" s="119" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G420" s="7">
+        <v>518</v>
+      </c>
+      <c r="H420" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I420" t="b">
+        <v>1</v>
+      </c>
+      <c r="J420" s="119" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K420" s="7">
+        <v>1632787200</v>
+      </c>
+      <c r="L420" s="119" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="A421" s="7">
+        <v>420</v>
+      </c>
+      <c r="B421" s="7">
+        <v>1</v>
+      </c>
+      <c r="C421" s="122" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D421" s="119" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G421" s="7">
+        <v>519</v>
+      </c>
+      <c r="H421" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I421" t="b">
+        <v>1</v>
+      </c>
+      <c r="J421" s="119" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K421" s="7">
+        <v>1632787200</v>
+      </c>
+      <c r="L421" s="119" t="s">
+        <v>2156</v>
       </c>
     </row>
   </sheetData>
@@ -30046,7 +30144,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C1099" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1130" sqref="B1130:B1131"/>
+      <selection pane="bottomRight" activeCell="C1131" sqref="C1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -56554,7 +56652,7 @@
         <v>507</v>
       </c>
       <c r="C1112" s="124" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D1112" s="44" t="s">
         <v>1747</v>
@@ -56758,7 +56856,7 @@
         <v>1120</v>
       </c>
       <c r="B1121" s="21">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1121" s="18" t="s">
         <v>1637</v>
@@ -56773,7 +56871,7 @@
         <v>1</v>
       </c>
       <c r="G1121" s="44" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
@@ -56781,22 +56879,22 @@
         <v>1121</v>
       </c>
       <c r="B1122" s="21">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1122" s="122" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D1122" s="122" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E1122" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1122" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1122" s="122" t="s">
         <v>2133</v>
-      </c>
-      <c r="E1122" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1122" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1122" s="122" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -56804,22 +56902,22 @@
         <v>1122</v>
       </c>
       <c r="B1123" s="21">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1123" s="122" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D1123" s="122" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E1123" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1123" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1123" s="122" t="s">
         <v>2136</v>
-      </c>
-      <c r="E1123" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1123" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1123" s="122" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
@@ -56827,22 +56925,22 @@
         <v>1123</v>
       </c>
       <c r="B1124" s="21">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1124" s="122" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D1124" s="122" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E1124" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1124" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="122" t="s">
         <v>2139</v>
-      </c>
-      <c r="E1124" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1124" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1124" s="122" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="1125" spans="1:7">
@@ -56850,22 +56948,22 @@
         <v>1124</v>
       </c>
       <c r="B1125" s="21">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1125" s="122" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D1125" s="122" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E1125" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1125" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1125" s="122" t="s">
         <v>2141</v>
-      </c>
-      <c r="E1125" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1125" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1125" s="122" t="s">
-        <v>2142</v>
       </c>
     </row>
     <row r="1126" spans="1:7">
@@ -56873,13 +56971,13 @@
         <v>1125</v>
       </c>
       <c r="B1126" s="21">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1126" s="122" t="s">
         <v>2063</v>
       </c>
       <c r="D1126" s="122" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E1126" s="21">
         <v>5</v>
@@ -56888,7 +56986,7 @@
         <v>1</v>
       </c>
       <c r="G1126" s="21" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1127" spans="1:7">
@@ -56896,13 +56994,13 @@
         <v>1126</v>
       </c>
       <c r="B1127" s="21">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1127" s="122" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1127" s="122" t="s">
         <v>2148</v>
-      </c>
-      <c r="D1127" s="122" t="s">
-        <v>2149</v>
       </c>
       <c r="E1127" s="21">
         <v>5</v>
@@ -56911,7 +57009,7 @@
         <v>1</v>
       </c>
       <c r="G1127" s="122" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
   </sheetData>
@@ -57060,7 +57158,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>1725</v>
@@ -57083,7 +57181,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>1725</v>
@@ -57106,7 +57204,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>1725</v>
@@ -57129,7 +57227,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>1725</v>
@@ -57198,7 +57296,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>1725</v>

--- a/config_9.28/permission_server_config.xlsx
+++ b/config_9.28/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="2160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5710" uniqueCount="2170">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9072,9 +9072,6 @@
     <t>"cjj",</t>
   </si>
   <si>
-    <t>"byam","sigmob",</t>
-  </si>
-  <si>
     <t>奥秘官方</t>
   </si>
   <si>
@@ -9097,9 +9094,6 @@
   </si>
   <si>
     <t>天天欢乐捕鱼CPL</t>
-  </si>
-  <si>
-    <t>"normal",</t>
   </si>
   <si>
     <t>天天欢乐捕鱼官方渠道</t>
@@ -9706,10 +9700,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>不是天天欢乐捕鱼CPS渠道玩家</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_task_not_vivo</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -9845,6 +9835,71 @@
       </rPr>
       <t>_2</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","sigmob",</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal",</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP1及以上用户</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_own_byam</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在捕鱼奥秘平台没有账号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是天天欢乐捕鱼CPS渠道玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在天天欢乐捕鱼有账号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是天天欢乐捕鱼CPL渠道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_own_cjj</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在冲金鸡平台没有账号</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -15735,7 +15790,7 @@
     </row>
     <row r="498" spans="1:17" customFormat="1">
       <c r="A498" s="1" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>804</v>
@@ -15837,10 +15892,10 @@
     </row>
     <row r="507" spans="1:17">
       <c r="A507" s="118" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="B507" s="118" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="C507" s="1">
         <v>500</v>
@@ -15848,10 +15903,10 @@
     </row>
     <row r="510" spans="1:17">
       <c r="A510" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>2067</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>2069</v>
       </c>
       <c r="C510" s="1">
         <v>502</v>
@@ -15859,10 +15914,10 @@
     </row>
     <row r="511" spans="1:17">
       <c r="A511" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>2068</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>2070</v>
       </c>
       <c r="C511" s="1">
         <v>503</v>
@@ -15870,10 +15925,10 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="118" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B514" s="118" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="C514" s="1">
         <v>510</v>
@@ -15881,10 +15936,10 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B518" s="118" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="C518" s="1">
         <v>511</v>
@@ -15892,10 +15947,10 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B519" s="118" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="C519" s="1">
         <v>512</v>
@@ -15903,10 +15958,10 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="B520" s="118" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="C520" s="1">
         <v>513</v>
@@ -15914,10 +15969,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="118" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B521" s="118" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="C521" s="1">
         <v>514</v>
@@ -15938,7 +15993,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D426" sqref="D426"/>
+      <selection pane="bottomRight" activeCell="F432" sqref="F432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27124,7 +27179,7 @@
         <v>1</v>
       </c>
       <c r="C331" s="119" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>1475</v>
@@ -27783,7 +27838,7 @@
         <v>1510</v>
       </c>
       <c r="D351" s="117" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E351" s="72"/>
       <c r="F351" s="72"/>
@@ -28494,7 +28549,7 @@
         <v>0</v>
       </c>
       <c r="C372" s="94" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D372" s="72" t="s">
         <v>1554</v>
@@ -28926,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="C385" s="120" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D385" s="96" t="s">
         <v>1579</v>
@@ -29479,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="J401" s="119" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="K401" s="7">
         <v>1619452800</v>
@@ -29528,7 +29583,7 @@
         <v>1</v>
       </c>
       <c r="C403" s="119" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D403" s="12" t="s">
         <v>1621</v>
@@ -29549,7 +29604,7 @@
         <v>0</v>
       </c>
       <c r="L403" s="119" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -29624,7 +29679,7 @@
         <v>1</v>
       </c>
       <c r="C406" s="118" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1627</v>
@@ -29656,10 +29711,10 @@
         <v>1</v>
       </c>
       <c r="C407" s="119" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D407" s="119" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="G407" s="7">
         <v>501</v>
@@ -29677,7 +29732,7 @@
         <v>0</v>
       </c>
       <c r="L407" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -29688,10 +29743,10 @@
         <v>1</v>
       </c>
       <c r="C408" s="119" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D408" s="119" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="G408" s="7">
         <v>504</v>
@@ -29703,13 +29758,13 @@
         <v>1</v>
       </c>
       <c r="J408" s="119" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="K408" s="7">
         <v>1627344000</v>
       </c>
       <c r="L408" s="119" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -29720,10 +29775,10 @@
         <v>1</v>
       </c>
       <c r="C409" s="119" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D409" s="119" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="G409" s="7">
         <v>505</v>
@@ -29735,13 +29790,13 @@
         <v>1</v>
       </c>
       <c r="J409" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K409" s="7">
         <v>1629158400</v>
       </c>
       <c r="L409" s="119" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -29752,10 +29807,10 @@
         <v>1</v>
       </c>
       <c r="C410" s="119" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D410" s="119" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="G410" s="7">
         <v>505</v>
@@ -29767,13 +29822,13 @@
         <v>1</v>
       </c>
       <c r="J410" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K410" s="7">
         <v>1629158400</v>
       </c>
       <c r="L410" s="119" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -29784,10 +29839,10 @@
         <v>1</v>
       </c>
       <c r="C411" s="119" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="D411" s="119" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="G411" s="7">
         <v>506</v>
@@ -29799,13 +29854,13 @@
         <v>1</v>
       </c>
       <c r="J411" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K411" s="7">
         <v>0</v>
       </c>
       <c r="L411" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -29816,10 +29871,10 @@
         <v>1</v>
       </c>
       <c r="C412" s="119" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D412" s="119" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="G412" s="7">
         <v>507</v>
@@ -29831,13 +29886,13 @@
         <v>1</v>
       </c>
       <c r="J412" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K412" s="7">
         <v>0</v>
       </c>
       <c r="L412" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -29848,10 +29903,10 @@
         <v>1</v>
       </c>
       <c r="C413" s="119" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D413" s="119" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="G413" s="7">
         <v>508</v>
@@ -29863,13 +29918,13 @@
         <v>1</v>
       </c>
       <c r="J413" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K413" s="7">
         <v>0</v>
       </c>
       <c r="L413" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -29880,10 +29935,10 @@
         <v>1</v>
       </c>
       <c r="C414" s="119" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D414" s="119" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="G414" s="7">
         <v>509</v>
@@ -29895,13 +29950,13 @@
         <v>1</v>
       </c>
       <c r="J414" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K414" s="7">
         <v>0</v>
       </c>
       <c r="L414" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -29912,10 +29967,10 @@
         <v>1</v>
       </c>
       <c r="C415" s="119" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G415" s="7">
         <v>510</v>
@@ -29927,13 +29982,13 @@
         <v>1</v>
       </c>
       <c r="J415" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K415" s="7">
         <v>0</v>
       </c>
       <c r="L415" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -29944,10 +29999,10 @@
         <v>1</v>
       </c>
       <c r="C416" s="119" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D416" s="7" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G416" s="7">
         <v>510</v>
@@ -29959,13 +30014,13 @@
         <v>1</v>
       </c>
       <c r="J416" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K416" s="7">
         <v>0</v>
       </c>
       <c r="L416" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -29976,10 +30031,10 @@
         <v>1</v>
       </c>
       <c r="C417" s="119" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G417" s="7">
         <v>510</v>
@@ -29991,13 +30046,13 @@
         <v>1</v>
       </c>
       <c r="J417" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K417" s="7">
         <v>0</v>
       </c>
       <c r="L417" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -30008,10 +30063,10 @@
         <v>1</v>
       </c>
       <c r="C418" s="119" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="D418" s="119" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="G418" s="7">
         <v>516</v>
@@ -30023,13 +30078,13 @@
         <v>1</v>
       </c>
       <c r="J418" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K418" s="7">
         <v>0</v>
       </c>
       <c r="L418" s="119" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -30040,10 +30095,10 @@
         <v>1</v>
       </c>
       <c r="C419" s="122" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D419" s="119" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="G419" s="7">
         <v>517</v>
@@ -30055,13 +30110,13 @@
         <v>1</v>
       </c>
       <c r="J419" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K419" s="7">
         <v>1632787200</v>
       </c>
       <c r="L419" s="119" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -30072,10 +30127,10 @@
         <v>1</v>
       </c>
       <c r="C420" s="122" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="D420" s="119" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="G420" s="7">
         <v>518</v>
@@ -30087,13 +30142,13 @@
         <v>1</v>
       </c>
       <c r="J420" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K420" s="7">
         <v>1632787200</v>
       </c>
       <c r="L420" s="119" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -30104,10 +30159,10 @@
         <v>1</v>
       </c>
       <c r="C421" s="122" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D421" s="119" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="G421" s="7">
         <v>519</v>
@@ -30119,13 +30174,13 @@
         <v>1</v>
       </c>
       <c r="J421" s="119" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="K421" s="7">
         <v>1632787200</v>
       </c>
       <c r="L421" s="119" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
   </sheetData>
@@ -30138,13 +30193,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1127"/>
+  <dimension ref="A1:I1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1099" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1131" sqref="C1131"/>
+      <selection pane="bottomRight" activeCell="D1142" sqref="D1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55024,10 +55079,10 @@
         <v>428</v>
       </c>
       <c r="C1042" s="21" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1042" s="21" t="s">
         <v>2090</v>
-      </c>
-      <c r="D1042" s="21" t="s">
-        <v>2092</v>
       </c>
       <c r="E1042" s="21">
         <v>5</v>
@@ -55036,7 +55091,7 @@
         <v>1</v>
       </c>
       <c r="G1042" s="21" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1043" spans="1:7">
@@ -55093,10 +55148,10 @@
         <v>429</v>
       </c>
       <c r="C1045" s="21" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1045" s="21" t="s">
         <v>2090</v>
-      </c>
-      <c r="D1045" s="21" t="s">
-        <v>2092</v>
       </c>
       <c r="E1045" s="21">
         <v>5</v>
@@ -55105,7 +55160,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="21" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1046" spans="1:7">
@@ -56186,7 +56241,7 @@
         <v>496</v>
       </c>
       <c r="C1092" s="122" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D1092" s="11" t="s">
         <v>1893</v>
@@ -56234,7 +56289,7 @@
         <v>498</v>
       </c>
       <c r="C1094" s="121" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D1094" s="21" t="s">
         <v>1995</v>
@@ -56307,10 +56362,10 @@
         <v>501</v>
       </c>
       <c r="C1097" s="122" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D1097" s="122" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E1097" s="21">
         <v>2</v>
@@ -56319,7 +56374,7 @@
         <v>1</v>
       </c>
       <c r="G1097" s="122" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1098" spans="1:9">
@@ -56330,19 +56385,19 @@
         <v>501</v>
       </c>
       <c r="C1098" s="122" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D1098" s="122" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E1098" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1098" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1098" s="122" t="s">
         <v>2064</v>
-      </c>
-      <c r="D1098" s="122" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E1098" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1098" s="21">
-        <v>2</v>
-      </c>
-      <c r="G1098" s="122" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="1099" spans="1:9">
@@ -56353,10 +56408,10 @@
         <v>502</v>
       </c>
       <c r="C1099" s="122" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D1099" s="21" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="E1099" s="21">
         <v>2</v>
@@ -56365,7 +56420,7 @@
         <v>1</v>
       </c>
       <c r="G1099" s="21" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1100" spans="1:9">
@@ -56376,19 +56431,19 @@
         <v>503</v>
       </c>
       <c r="C1100" s="122" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D1100" s="21" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1100" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1100" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="21" t="s">
         <v>2075</v>
-      </c>
-      <c r="E1100" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1100" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1100" s="21" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="1101" spans="1:9">
@@ -56399,19 +56454,19 @@
         <v>503</v>
       </c>
       <c r="C1101" s="122" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D1101" s="21" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1101" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1101" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1101" s="21" t="s">
         <v>2076</v>
-      </c>
-      <c r="E1101" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1101" s="21">
-        <v>2</v>
-      </c>
-      <c r="G1101" s="21" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="1102" spans="1:9">
@@ -56457,7 +56512,7 @@
         <v>1</v>
       </c>
       <c r="G1103" s="21" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1104" spans="1:9">
@@ -56494,7 +56549,7 @@
         <v>1637</v>
       </c>
       <c r="D1105" s="10" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="E1105" s="21">
         <v>5</v>
@@ -56503,7 +56558,7 @@
         <v>2</v>
       </c>
       <c r="G1105" s="21" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -56540,7 +56595,7 @@
         <v>1637</v>
       </c>
       <c r="D1107" s="10" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="E1107" s="21">
         <v>5</v>
@@ -56549,7 +56604,7 @@
         <v>3</v>
       </c>
       <c r="G1107" s="21" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -56583,10 +56638,10 @@
         <v>505</v>
       </c>
       <c r="C1109" s="21" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1109" s="21" t="s">
         <v>2090</v>
-      </c>
-      <c r="D1109" s="21" t="s">
-        <v>2092</v>
       </c>
       <c r="E1109" s="21">
         <v>5</v>
@@ -56595,7 +56650,7 @@
         <v>1</v>
       </c>
       <c r="G1109" s="21" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1110" spans="1:7">
@@ -56641,7 +56696,7 @@
         <v>1</v>
       </c>
       <c r="G1111" s="122" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -56652,7 +56707,7 @@
         <v>507</v>
       </c>
       <c r="C1112" s="124" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D1112" s="44" t="s">
         <v>1747</v>
@@ -56687,7 +56742,7 @@
         <v>1</v>
       </c>
       <c r="G1113" s="122" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
@@ -56710,7 +56765,7 @@
         <v>1</v>
       </c>
       <c r="G1114" s="122" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -56756,7 +56811,7 @@
         <v>1</v>
       </c>
       <c r="G1116" s="122" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1117" spans="1:7">
@@ -56779,7 +56834,7 @@
         <v>1</v>
       </c>
       <c r="G1117" s="122" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1118" spans="1:7">
@@ -56825,7 +56880,7 @@
         <v>1</v>
       </c>
       <c r="G1119" s="122" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1120" spans="1:7">
@@ -56836,10 +56891,10 @@
         <v>510</v>
       </c>
       <c r="C1120" s="21" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D1120" s="21" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E1120" s="21">
         <v>5</v>
@@ -56848,7 +56903,7 @@
         <v>1</v>
       </c>
       <c r="G1120" s="21" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1121" spans="1:7">
@@ -56871,7 +56926,7 @@
         <v>1</v>
       </c>
       <c r="G1121" s="44" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
@@ -56882,10 +56937,10 @@
         <v>511</v>
       </c>
       <c r="C1122" s="122" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D1122" s="122" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="E1122" s="21">
         <v>2</v>
@@ -56894,7 +56949,7 @@
         <v>1</v>
       </c>
       <c r="G1122" s="122" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -56905,10 +56960,10 @@
         <v>512</v>
       </c>
       <c r="C1123" s="122" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D1123" s="122" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="E1123" s="21">
         <v>2</v>
@@ -56917,7 +56972,7 @@
         <v>1</v>
       </c>
       <c r="G1123" s="122" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
@@ -56928,10 +56983,10 @@
         <v>513</v>
       </c>
       <c r="C1124" s="122" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D1124" s="122" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="E1124" s="21">
         <v>2</v>
@@ -56940,7 +56995,7 @@
         <v>1</v>
       </c>
       <c r="G1124" s="122" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1125" spans="1:7">
@@ -56951,10 +57006,10 @@
         <v>514</v>
       </c>
       <c r="C1125" s="122" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D1125" s="122" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="E1125" s="21">
         <v>2</v>
@@ -56963,7 +57018,7 @@
         <v>1</v>
       </c>
       <c r="G1125" s="122" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1126" spans="1:7">
@@ -56974,10 +57029,10 @@
         <v>515</v>
       </c>
       <c r="C1126" s="122" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D1126" s="122" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="E1126" s="21">
         <v>5</v>
@@ -56985,8 +57040,8 @@
       <c r="F1126" s="21">
         <v>1</v>
       </c>
-      <c r="G1126" s="21" t="s">
-        <v>2144</v>
+      <c r="G1126" s="122" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="1127" spans="1:7">
@@ -56997,10 +57052,10 @@
         <v>516</v>
       </c>
       <c r="C1127" s="122" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D1127" s="122" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="E1127" s="21">
         <v>5</v>
@@ -57009,7 +57064,283 @@
         <v>1</v>
       </c>
       <c r="G1127" s="122" t="s">
-        <v>2149</v>
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7">
+      <c r="A1128" s="21">
+        <v>1127</v>
+      </c>
+      <c r="B1128" s="21">
+        <v>517</v>
+      </c>
+      <c r="C1128" s="121" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1128" s="122" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E1128" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1128" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1128" s="122" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7">
+      <c r="A1129" s="21">
+        <v>1128</v>
+      </c>
+      <c r="B1129" s="21">
+        <v>517</v>
+      </c>
+      <c r="C1129" s="122" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1129" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1129" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1129" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1129" s="122" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7">
+      <c r="A1130" s="21">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="21">
+        <v>517</v>
+      </c>
+      <c r="C1130" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1130" s="121" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E1130" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1130" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1130" s="121" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7">
+      <c r="A1131" s="21">
+        <v>1130</v>
+      </c>
+      <c r="B1131" s="21">
+        <v>517</v>
+      </c>
+      <c r="C1131" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1131" s="121" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E1131" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1131" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1131" s="121" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7">
+      <c r="A1132" s="122">
+        <v>1131</v>
+      </c>
+      <c r="B1132" s="21">
+        <v>518</v>
+      </c>
+      <c r="C1132" s="121" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1132" s="122" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1132" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1132" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1132" s="122" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7">
+      <c r="A1133" s="21">
+        <v>1132</v>
+      </c>
+      <c r="B1133" s="21">
+        <v>518</v>
+      </c>
+      <c r="C1133" s="122" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1133" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1133" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1133" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1133" s="122" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7">
+      <c r="A1134" s="21">
+        <v>1133</v>
+      </c>
+      <c r="B1134" s="21">
+        <v>518</v>
+      </c>
+      <c r="C1134" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1134" s="121" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E1134" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1134" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1134" s="121" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7">
+      <c r="A1135" s="21">
+        <v>1134</v>
+      </c>
+      <c r="B1135" s="21">
+        <v>518</v>
+      </c>
+      <c r="C1135" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1135" s="121" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E1135" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1135" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1135" s="121" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7">
+      <c r="A1136" s="21">
+        <v>1135</v>
+      </c>
+      <c r="B1136" s="21">
+        <v>519</v>
+      </c>
+      <c r="C1136" s="121" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1136" s="122" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E1136" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1136" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1136" s="122" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7">
+      <c r="A1137" s="122">
+        <v>1136</v>
+      </c>
+      <c r="B1137" s="21">
+        <v>519</v>
+      </c>
+      <c r="C1137" s="122" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1137" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1137" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1137" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1137" s="122" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7">
+      <c r="A1138" s="21">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="21">
+        <v>519</v>
+      </c>
+      <c r="C1138" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1138" s="121" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E1138" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1138" s="121" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7">
+      <c r="A1139" s="21">
+        <v>1138</v>
+      </c>
+      <c r="B1139" s="21">
+        <v>519</v>
+      </c>
+      <c r="C1139" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1139" s="121" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E1139" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1139" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1139" s="121" t="s">
+        <v>2164</v>
       </c>
     </row>
   </sheetData>
@@ -57024,7 +57355,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57092,7 +57423,7 @@
         <v>1670</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2002</v>
@@ -57158,7 +57489,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>1725</v>
@@ -57181,7 +57512,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>1725</v>
@@ -57204,7 +57535,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>1725</v>
@@ -57227,7 +57558,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>1725</v>
@@ -57249,8 +57580,8 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>2076</v>
+      <c r="B10" s="123" t="s">
+        <v>2074</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>1725</v>
@@ -57296,22 +57627,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>1725</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="121" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>2018</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -57325,16 +57656,16 @@
         <v>1725</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>2020</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -57348,30 +57679,30 @@
         <v>1725</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>2022</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2023</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>2071</v>
+      <c r="B15" s="123" t="s">
+        <v>2167</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>1725</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -57380,30 +57711,30 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>2074</v>
+      <c r="B16" s="123" t="s">
+        <v>2072</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>1725</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>2025</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -57411,13 +57742,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>1725</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>2027</v>
+      <c r="D17" s="121" t="s">
+        <v>2158</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -57426,7 +57757,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -57440,7 +57771,7 @@
         <v>1725</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -57449,7 +57780,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -57463,7 +57794,7 @@
         <v>1725</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -57472,7 +57803,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
   </sheetData>
@@ -57499,13 +57830,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2033</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2034</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -57521,10 +57852,10 @@
         <v>1650</v>
       </c>
       <c r="B2" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.9" customHeight="1">
@@ -57532,7 +57863,7 @@
         <v>1667</v>
       </c>
       <c r="B3" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.15" customHeight="1">
@@ -57540,7 +57871,7 @@
         <v>1665</v>
       </c>
       <c r="B4" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.6" customHeight="1">
@@ -57548,15 +57879,15 @@
         <v>1686</v>
       </c>
       <c r="B5" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.15" customHeight="1">
       <c r="A6" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B6" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="104.25" customHeight="1">
@@ -57564,7 +57895,7 @@
         <v>1637</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -57572,15 +57903,15 @@
         <v>1725</v>
       </c>
       <c r="B8" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
@@ -57588,10 +57919,10 @@
         <v>1674</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -57599,7 +57930,7 @@
         <v>1764</v>
       </c>
       <c r="B11" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -57607,10 +57938,10 @@
         <v>1769</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -57618,7 +57949,7 @@
         <v>1767</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
